--- a/featureranking.xlsx
+++ b/featureranking.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rayta\Documents\UAV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rayta\Documents\UAV\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F85ACE1-20FC-437C-8A71-124F9FA41881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29AF81DC-5063-41B0-AB99-D152B0A233D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8A97E1AD-1885-4598-B687-EB1FE4BF1ACC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="61">
   <si>
     <t>date</t>
   </si>
@@ -190,6 +190,24 @@
   </si>
   <si>
     <t>Maybe???? (the lowest temperature under current conditions by only evaporation of water)</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>STD</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Slightly offset, strong pattern</t>
+  </si>
+  <si>
+    <t>Almost aligned, strong pattern</t>
+  </si>
+  <si>
+    <t>Aligned, weak pattern</t>
   </si>
 </sst>
 </file>
@@ -233,11 +251,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -553,43 +578,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6556C01D-C739-4502-8984-EFA0977F4497}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33.33203125" customWidth="1"/>
     <col min="2" max="2" width="75.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="6" max="6" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D1" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>38</v>
@@ -597,21 +628,39 @@
       <c r="C3" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>0.20319999999999999</v>
+      </c>
+      <c r="E3">
+        <v>0.10009999999999999</v>
+      </c>
+      <c r="F3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4">
+        <v>0.29289999999999999</v>
+      </c>
+      <c r="E4">
+        <v>0.13850000000000001</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>39</v>
@@ -619,10 +668,19 @@
       <c r="C5">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>14.562099999999999</v>
+      </c>
+      <c r="E5">
+        <v>6.0228999999999999</v>
+      </c>
+      <c r="F5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>39</v>
@@ -630,10 +688,16 @@
       <c r="C6">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>16.122399999999999</v>
+      </c>
+      <c r="E6">
+        <v>5.1241000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>39</v>
@@ -641,54 +705,87 @@
       <c r="C7">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>61.917499999999997</v>
+      </c>
+      <c r="E7">
+        <v>10.3529</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C8">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>10.9117</v>
+      </c>
+      <c r="E8">
+        <v>3.8828999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>1.5629999999999999</v>
+      </c>
+      <c r="E9">
+        <v>0.62219999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>40</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="D10">
+        <v>12.7082</v>
+      </c>
+      <c r="E10">
+        <v>7.5069999999999997</v>
+      </c>
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>41</v>
-      </c>
-      <c r="C10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>46</v>
       </c>
       <c r="C11">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>0.92230000000000001</v>
+      </c>
+      <c r="E11">
+        <v>2.6756000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>46</v>
@@ -696,32 +793,50 @@
       <c r="C12">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <v>0.26729999999999998</v>
+      </c>
+      <c r="E12">
+        <v>9.5799999999999996E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C13">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="E13">
+        <v>9.3200000000000005E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>6.5991999999999997</v>
+      </c>
+      <c r="E14">
+        <v>6.7106000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>17</v>
       </c>
       <c r="B15" t="s">
         <v>42</v>
@@ -729,120 +844,186 @@
       <c r="C15">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <v>37.9452</v>
+      </c>
+      <c r="E15">
+        <v>11.937099999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C16">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <v>24.971800000000002</v>
+      </c>
+      <c r="E16">
+        <v>8.0845000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C17">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>0.27829999999999999</v>
+      </c>
+      <c r="E17">
+        <v>9.6799999999999997E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>10.138</v>
+      </c>
+      <c r="E18">
+        <v>5.7549000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>13</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>44</v>
-      </c>
-      <c r="C18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" t="s">
-        <v>45</v>
       </c>
       <c r="C19">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <v>4.2236000000000002</v>
+      </c>
+      <c r="E19">
+        <v>1.1336999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <v>1016.2353000000001</v>
+      </c>
+      <c r="E20">
+        <v>6.1395999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C21">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <v>984.03499999999997</v>
+      </c>
+      <c r="E21">
+        <v>17.403400000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>4.2236000000000002</v>
+      </c>
+      <c r="E22">
+        <v>1.1336999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>47</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="D23">
+        <v>0.2797</v>
+      </c>
+      <c r="E23">
+        <v>9.9299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>12</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>43</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="D24">
+        <v>23.324000000000002</v>
+      </c>
+      <c r="E24">
+        <v>5.2316000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>7</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>37</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>49</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <v>0.92589999999999995</v>
+      </c>
+      <c r="E25">
+        <v>2.6776</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>49</v>
@@ -850,21 +1031,33 @@
       <c r="C26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26">
+        <v>13.3127</v>
+      </c>
+      <c r="E26">
+        <v>6.3822000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>11.6265</v>
+      </c>
+      <c r="E27">
+        <v>6.2004000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>1</v>
-      </c>
-      <c r="B27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>2</v>
       </c>
       <c r="B28" t="s">
         <v>37</v>
@@ -873,20 +1066,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B30" t="s">
         <v>49</v>
@@ -894,21 +1087,33 @@
       <c r="C30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30">
+        <v>8.9779</v>
+      </c>
+      <c r="E30">
+        <v>5.8505000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>7.7839999999999998</v>
+      </c>
+      <c r="E31">
+        <v>5.9318999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>0</v>
-      </c>
-      <c r="B31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>11</v>
       </c>
       <c r="B32" t="s">
         <v>37</v>
@@ -917,9 +1122,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B33" t="s">
         <v>37</v>
@@ -927,10 +1132,16 @@
       <c r="C33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33">
+        <v>212.66929999999999</v>
+      </c>
+      <c r="E33">
+        <v>92.8536</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B34" t="s">
         <v>37</v>
@@ -938,10 +1149,16 @@
       <c r="C34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34">
+        <v>31.209900000000001</v>
+      </c>
+      <c r="E34">
+        <v>17.0976</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35" t="s">
         <v>37</v>
@@ -949,10 +1166,16 @@
       <c r="C35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35">
+        <v>45.994799999999998</v>
+      </c>
+      <c r="E35">
+        <v>26.192699999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
@@ -960,11 +1183,37 @@
       <c r="C36">
         <v>0</v>
       </c>
+      <c r="D36">
+        <v>14.6113</v>
+      </c>
+      <c r="E36">
+        <v>5.9200999999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>212.66929999999999</v>
+      </c>
+      <c r="E37">
+        <v>92.8536</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C37">
-    <sortCondition descending="1" ref="C1:C37"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C38">
+    <sortCondition descending="1" ref="C2:C38"/>
   </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/featureranking.xlsx
+++ b/featureranking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rayta\Documents\UAV\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29AF81DC-5063-41B0-AB99-D152B0A233D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5BC0E5-8D31-4FF6-BCE4-F09E47EE4672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8A97E1AD-1885-4598-B687-EB1FE4BF1ACC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="80">
   <si>
     <t>date</t>
   </si>
@@ -201,20 +201,77 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Slightly offset, strong pattern</t>
-  </si>
-  <si>
-    <t>Almost aligned, strong pattern</t>
-  </si>
-  <si>
     <t>Aligned, weak pattern</t>
+  </si>
+  <si>
+    <t>Slightly offset, strong pattern, low area on edges</t>
+  </si>
+  <si>
+    <t>Almost aligned, strong pattern, low area on edges</t>
+  </si>
+  <si>
+    <t>Aligned, weak pattern, low area near max</t>
+  </si>
+  <si>
+    <t>Aligned, decent pattern, wide distribution</t>
+  </si>
+  <si>
+    <t>Almost aligned, weak pattern, no real takeaway</t>
+  </si>
+  <si>
+    <t>Aligned, strong pattern, low area near the max</t>
+  </si>
+  <si>
+    <t>Bimodal, aligned for one, two spikes at 0.25 and 0.65, dead zones at 0, 0.5 and 0.7</t>
+  </si>
+  <si>
+    <t>Bimodal, aligned for one, two spikes at 0.25 and 0.65, dead zones at 0, 0.5 and 0.8</t>
+  </si>
+  <si>
+    <t>Almost aligned, decent pattern, low area on lower edge</t>
+  </si>
+  <si>
+    <t>Almost aligned, decent pattern, low area near max</t>
+  </si>
+  <si>
+    <t>Bimodal, aligned for one, two spikes at 0.25 and 0.65, dead zones at 0, 0.55, 0.75</t>
+  </si>
+  <si>
+    <t>Almost aligned, weak pattern, low area on edges but almost no real takeaways</t>
+  </si>
+  <si>
+    <t>Almost aligned, decent pattern, low area on lower edges</t>
+  </si>
+  <si>
+    <t>Almost aligned, decent pattern, no real takeaways</t>
+  </si>
+  <si>
+    <t>Bimodal, aligned for one, two spikes at 0.25 and 0.65, dead zones at 0, 0.55, 0.7</t>
+  </si>
+  <si>
+    <t>Almost aligned, decent pattern, lower area on lower edges</t>
+  </si>
+  <si>
+    <t>Aligned, strong pattern, low area near max</t>
+  </si>
+  <si>
+    <t>Bad alignment, no pattern, bad</t>
+  </si>
+  <si>
+    <t>Bad alignment, no pattern, lower area near max, but not that useful</t>
+  </si>
+  <si>
+    <t>Bad alignment, no pattern, really bad</t>
+  </si>
+  <si>
+    <t>Mostly aligned, wide top, weak pattern</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,6 +283,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -581,7 +644,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -589,7 +652,7 @@
     <col min="1" max="1" width="33.33203125" customWidth="1"/>
     <col min="2" max="2" width="75.6640625" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="6" max="6" width="36.6640625" customWidth="1"/>
+    <col min="6" max="6" width="67.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -635,7 +698,7 @@
         <v>0.10009999999999999</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -655,7 +718,7 @@
         <v>0.13850000000000001</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -675,7 +738,7 @@
         <v>6.0228999999999999</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -694,6 +757,9 @@
       <c r="E6">
         <v>5.1241000000000003</v>
       </c>
+      <c r="F6" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -711,6 +777,9 @@
       <c r="E7">
         <v>10.3529</v>
       </c>
+      <c r="F7" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -728,6 +797,9 @@
       <c r="E8">
         <v>3.8828999999999998</v>
       </c>
+      <c r="F8" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -745,6 +817,9 @@
       <c r="E9">
         <v>0.62219999999999998</v>
       </c>
+      <c r="F9" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -763,7 +838,7 @@
         <v>7.5069999999999997</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -782,6 +857,9 @@
       <c r="E11">
         <v>2.6756000000000002</v>
       </c>
+      <c r="F11" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -799,6 +877,9 @@
       <c r="E12">
         <v>9.5799999999999996E-2</v>
       </c>
+      <c r="F12" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -816,6 +897,9 @@
       <c r="E13">
         <v>9.3200000000000005E-2</v>
       </c>
+      <c r="F13" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -833,6 +917,9 @@
       <c r="E14">
         <v>6.7106000000000003</v>
       </c>
+      <c r="F14" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -850,6 +937,9 @@
       <c r="E15">
         <v>11.937099999999999</v>
       </c>
+      <c r="F15" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -867,8 +957,11 @@
       <c r="E16">
         <v>8.0845000000000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -884,8 +977,11 @@
       <c r="E17">
         <v>9.6799999999999997E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -901,8 +997,11 @@
       <c r="E18">
         <v>5.7549000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -918,8 +1017,11 @@
       <c r="E19">
         <v>1.1336999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -935,8 +1037,11 @@
       <c r="E20">
         <v>6.1395999999999997</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -952,8 +1057,11 @@
       <c r="E21">
         <v>17.403400000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -969,8 +1077,11 @@
       <c r="E22">
         <v>1.1336999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -986,8 +1097,11 @@
       <c r="E23">
         <v>9.9299999999999999E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1003,8 +1117,11 @@
       <c r="E24">
         <v>5.2316000000000003</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -1020,8 +1137,11 @@
       <c r="E25">
         <v>2.6776</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1037,8 +1157,11 @@
       <c r="E26">
         <v>6.3822000000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1054,8 +1177,11 @@
       <c r="E27">
         <v>6.2004000000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -1066,7 +1192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -1077,7 +1203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -1093,8 +1219,11 @@
       <c r="E30">
         <v>5.8505000000000003</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -1110,8 +1239,11 @@
       <c r="E31">
         <v>5.9318999999999997</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -1122,7 +1254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -1138,8 +1270,11 @@
       <c r="E33">
         <v>92.8536</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -1155,8 +1290,11 @@
       <c r="E34">
         <v>17.0976</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>31</v>
       </c>
@@ -1172,8 +1310,11 @@
       <c r="E35">
         <v>26.192699999999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -1189,8 +1330,11 @@
       <c r="E36">
         <v>5.9200999999999997</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -1205,6 +1349,9 @@
       </c>
       <c r="E37">
         <v>92.8536</v>
+      </c>
+      <c r="F37" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1214,6 +1361,7 @@
   <mergeCells count="1">
     <mergeCell ref="D1:E1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
